--- a/output/google_maps_data_SMP_Gunungkidul.xlsx
+++ b/output/google_maps_data_SMP_Gunungkidul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(0274) 391039</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.8</v>
+        <v>-7.964759</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.964759</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.605036</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPN+1+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb35cae2a55c3:0xc033bf38bf3e7178!8m2!3d-7.9647594!4d110.6050358!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObGRGbHFYMXBSRUFF4AEA-gEECAAQMg!16s%2Fg%2F1hm56zf41?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPN+1+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb35cae2a55c3:0xc033bf38bf3e7178!8m2!3d-7.9647594!4d110.6050358!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObGRGbHFYMXBSRUFF4AEA-gEECAAQMg!16s%2Fg%2F1hm56zf41?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -556,25 +550,24 @@
           <t>(0274) 4544692</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.2</v>
+        <v>-7.850205</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.850205</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.478368</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Patuk/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a51a197f7ba5d:0x32c91ded1cb92ae2!8m2!3d-7.8502047!4d110.4783684!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSbGVITk1kV0YzRUFF4AEA-gEECAAQLQ!16s%2Fg%2F1hm5np82t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Patuk/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a51a197f7ba5d:0x32c91ded1cb92ae2!8m2!3d-7.8502047!4d110.4783684!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSbGVITk1kV0YzRUFF4AEA-gEECAAQLQ!16s%2Fg%2F1hm5np82t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -601,25 +594,24 @@
           <t>(0274) 2910411</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>-7.934969</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.934969</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.57212</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Al+Mujahidin/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4cd8d54c87f9:0xd3208245968ec93f!8m2!3d-7.9349691!4d110.57212!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOWU5FODNjVk5uRUFF4AEA-gEECAAQKw!16s%2Fg%2F11cjj06tpc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Al+Mujahidin/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4cd8d54c87f9:0xd3208245968ec93f!8m2!3d-7.9349691!4d110.57212!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOWU5FODNjVk5uRUFF4AEA-gEECAAQKw!16s%2Fg%2F11cjj06tpc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -646,25 +638,24 @@
           <t>(0274) 392202</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>-7.944942</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.944942</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.552813</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Playen/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4d316a9c639d:0x46867964b0da340b!8m2!3d-7.9449416!4d110.5528132!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNdGRsa3ROR3gzUlJBQuABAPoBBAgAEA4!16s%2Fg%2F11c0xdpt69?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Playen/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4d316a9c639d:0x46867964b0da340b!8m2!3d-7.9449416!4d110.5528132!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNdGRsa3ROR3gzUlJBQuABAPoBBAgAEA4!16s%2Fg%2F11c0xdpt69?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>20 jam lalu</t>
         </is>
@@ -691,25 +682,24 @@
           <t>(0274) 391037</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>-7.967442</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.967442</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.59861</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPN+2+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb341b1a8921b:0x4c3ee2079b178bb5!8m2!3d-7.967442!4d110.59861!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaE55MUxabWRuUlJBQuABAPoBBAhUEDg!16s%2Fg%2F1hm2txlvr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPN+2+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb341b1a8921b:0x4c3ee2079b178bb5!8m2!3d-7.967442!4d110.59861!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaE55MUxabWRuUlJBQuABAPoBBAhUEDg!16s%2Fg%2F1hm2txlvr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -732,25 +722,24 @@
           <t>(0274) 392776</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>-7.940295</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.940295</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.597112</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+4+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4cb7119c2447:0x1859b201c82e90ac!8m2!3d-7.9402952!4d110.5971118!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNXUTNRa1ZSRUFF4AEA-gEECAAQLA!16s%2Fg%2F1hm5dx77j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+4+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4cb7119c2447:0x1859b201c82e90ac!8m2!3d-7.9402952!4d110.5971118!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNXUTNRa1ZSRUFF4AEA-gEECAAQLA!16s%2Fg%2F1hm5dx77j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -769,25 +758,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>-7.883502</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.883502</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.579727</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPN+1+GEDANGSARI/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4db7db51555f:0xa7490a6deae58e63!8m2!3d-7.8835018!4d110.5797271!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11fnrqc21q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPN+1+GEDANGSARI/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4db7db51555f:0xa7490a6deae58e63!8m2!3d-7.8835018!4d110.5797271!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11fnrqc21q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -810,25 +798,24 @@
           <t>0811-2513-360</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.8</v>
+        <v>-8.025687</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.025687</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.376609</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Purwosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7ba962f7eed8d5:0x2a1290aecf3bded5!8m2!3d-8.0256875!4d110.3766094!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOS2NGQlVkMDUzRUFF4AEA-gEECAAQJg!16s%2Fg%2F1hm1t_h2p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Purwosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7ba962f7eed8d5:0x2a1290aecf3bded5!8m2!3d-8.0256875!4d110.3766094!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOS2NGQlVkMDUzRUFF4AEA-gEECAAQJg!16s%2Fg%2F1hm1t_h2p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -851,25 +838,24 @@
           <t>0812-2792-0685</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.9</v>
+        <v>-7.999458</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.999458</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.59426</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPIT+Tunas+Mulia/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb39814b03d27:0xf64592e35e6453cc!8m2!3d-7.9994576!4d110.5942596!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5JTFV4SFEwdFJFQUXgAQD6AQQIPxAP!16s%2Fg%2F11c602k1d1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPIT+Tunas+Mulia/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb39814b03d27:0xf64592e35e6453cc!8m2!3d-7.9994576!4d110.5942596!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEGc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5JTFV4SFEwdFJFQUXgAQD6AQQIPxAP!16s%2Fg%2F11c602k1d1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -892,25 +878,24 @@
           <t>0812-2726-751</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>-7.879921</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.879921</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.618997</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+NEGERI+1+NGLIPAR/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4bf667fa0c1f:0x681c15b99df8cc39!8m2!3d-7.8799213!4d110.6189972!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMWEwcG1kM05uUlJBQuABAPoBBAgAEA4!16s%2Fg%2F11d_7rlhpt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+NEGERI+1+NGLIPAR/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4bf667fa0c1f:0x681c15b99df8cc39!8m2!3d-7.8799213!4d110.6189972!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMWEwcG1kM05uUlJBQuABAPoBBAgAEA4!16s%2Fg%2F11d_7rlhpt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -933,25 +918,24 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.7</v>
+        <v>-7.869898</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.869898</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.523579</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Patuk/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4dffd9ae54df:0x30676f9df027dcba!8m2!3d-7.8698977!4d110.5235787!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTU9YQjFkV1ZCRUFF4AEA-gEECAAQMg!16s%2Fg%2F1hm3lgfb0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Patuk/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4dffd9ae54df:0x30676f9df027dcba!8m2!3d-7.8698977!4d110.5235787!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTU9YQjFkV1ZCRUFF4AEA-gEECAAQMg!16s%2Fg%2F1hm3lgfb0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -974,25 +958,24 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.2</v>
+        <v>-7.83592</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.83592</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.52642</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+4+Patuk/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4e293bfb9ae9:0xa6147f62784d0de6!8m2!3d-7.83592!4d110.52642!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYWVISnRabkZSUlJBQuABAPoBBAgAEC8!16s%2Fg%2F1hm32rt8z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+4+Patuk/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4e293bfb9ae9:0xa6147f62784d0de6!8m2!3d-7.83592!4d110.52642!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYWVISnRabkZSUlJBQuABAPoBBAgAEC8!16s%2Fg%2F1hm32rt8z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1015,25 +998,24 @@
           <t>(0274) 391349</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.7</v>
+        <v>-7.97118</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.97118</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.606705</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Kanisius+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb367b73f96bb:0xcab100fadbdaaec8!8m2!3d-7.9711797!4d110.6067048!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOWGMySmhXWFYzUlJBQuABAPoBBAh_EDs!16s%2Fg%2F11b6rglnjp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Kanisius+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb367b73f96bb:0xcab100fadbdaaec8!8m2!3d-7.9711797!4d110.6067048!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOWGMySmhXWFYzUlJBQuABAPoBBAh_EDs!16s%2Fg%2F11b6rglnjp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -1056,25 +1038,24 @@
           <t>0822-338-970</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.2</v>
+        <v>-7.920164</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.920164</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.535535</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+4+Playen/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a5281c22321ad:0xdf56333dc0b3967e!8m2!3d-7.9201645!4d110.5355346!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMU9VbG1WVkYzRUFF4AEA-gEECAAQFQ!16s%2Fg%2F1hm2kthtt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+4+Playen/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a5281c22321ad:0xdf56333dc0b3967e!8m2!3d-7.9201645!4d110.5355346!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOMU9VbG1WVkYzRUFF4AEA-gEECAAQFQ!16s%2Fg%2F1hm2kthtt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1097,25 +1078,24 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>-7.951455</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.951455</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.551486</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+AR+RUHAMAA'+GUNUNGKIDUL/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4dd3c56907bd:0x3d3dbbe131c5c8b1!8m2!3d-7.9514546!4d110.5514861!15sCg9TTVAgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11kr_6sqdd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+AR+RUHAMAA'+GUNUNGKIDUL/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4dd3c56907bd:0x3d3dbbe131c5c8b1!8m2!3d-7.9514546!4d110.5514861!15sCg9TTVAgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11kr_6sqdd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1142,25 +1122,24 @@
           <t>(0274) 392005</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>-7.925261</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.925261</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.563414</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Playen/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4d1eac768a71:0x3cc0f0bc317b121c!8m2!3d-7.9252611!4d110.5634142!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm2q1y2s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Playen/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4d1eac768a71:0x3cc0f0bc317b121c!8m2!3d-7.9252611!4d110.5634142!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm2q1y2s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1179,25 +1158,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.6</v>
+        <v>-7.85722</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.85722</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.64758</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Nglipar/@-7.85722,110.3591889,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a49643afd161f:0x48f258ec73ebcc9a!8m2!3d-7.85722!4d110.64758!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSd2NFbFVlSFZuUlJBQuABAPoBBAgAEC0!16s%2Fg%2F1hm3md0mw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Nglipar/@-7.85722,110.3591889,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a49643afd161f:0x48f258ec73ebcc9a!8m2!3d-7.85722!4d110.64758!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSd2NFbFVlSFZuUlJBQuABAPoBBAgAEC0!16s%2Fg%2F1hm3md0mw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1224,25 +1202,24 @@
           <t>(0274) 7101895</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>-8.002462</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.002462</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.509031</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPN+1+Paliyan/@-8.0024623,110.2206397,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bad9b8d956547:0x14c7a85480bb623!8m2!3d-8.0024623!4d110.5090308!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSbGVHVk1YMHhuRUFF4AEA-gEECAAQEA!16s%2Fg%2F1hm3w4rnl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPN+1+Paliyan/@-8.0024623,110.2206397,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bad9b8d956547:0x14c7a85480bb623!8m2!3d-8.0024623!4d110.5090308!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSbGVHVk1YMHhuRUFF4AEA-gEECAAQEA!16s%2Fg%2F1hm3w4rnl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1265,25 +1242,24 @@
           <t>0815-5006-307</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.8</v>
+        <v>-8.016258000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.016258000000001</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.417409</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Bina+Muda+Panggang/@-8.0024623,110.2206397,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bab8c357603d3:0x7ccfaba5bf4d93ec!8m2!3d-8.0162578!4d110.4174089!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSVU1UVmxRVGwzUlJBQuABAPoBBAgAEDg!16s%2Fg%2F11cn5p5hhs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Bina+Muda+Panggang/@-8.0024623,110.2206397,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bab8c357603d3:0x7ccfaba5bf4d93ec!8m2!3d-8.0162578!4d110.4174089!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSVU1UVmxRVGwzUlJBQuABAPoBBAgAEDg!16s%2Fg%2F11cn5p5hhs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1306,25 +1282,24 @@
           <t>0811-2632-288</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>-7.871344</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.871344</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.519398</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Patuk/@-8.0024623,110.2206397,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a52003a9b4a23:0x2603087dc73c9bd7!8m2!3d-7.8713439!4d110.5193984!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObGRtOWlRVkpSRUFF4AEA-gEECAAQMg!16s%2Fg%2F1hm23mdkh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Patuk/@-8.0024623,110.2206397,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a52003a9b4a23:0x2603087dc73c9bd7!8m2!3d-7.8713439!4d110.5193984!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VObGRtOWlRVkpSRUFF4AEA-gEECAAQMg!16s%2Fg%2F1hm23mdkh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1347,25 +1322,24 @@
           <t>(0274) 391330</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>-7.964526</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.964526</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.599495</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Wonosari/@-8.0024623,110.2206397,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb343f9a39b23:0xedcd67b412b3838!8m2!3d-7.9645265!4d110.5994953!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMWJYTk1aVEJSUlJBQuABAPoBBAhTEEk!16s%2Fg%2F11c1p910pg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Wonosari/@-8.0024623,110.2206397,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb343f9a39b23:0xedcd67b412b3838!8m2!3d-7.9645265!4d110.5994953!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMWJYTk1aVEJSUlJBQuABAPoBBAhTEEk!16s%2Fg%2F11c1p910pg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1388,25 +1362,24 @@
           <t>(0274) 3950044</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.7</v>
+        <v>-7.976817</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.976817</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.708197</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPN+1+Ponjong/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb57cf57a5307:0xb753d4058efc5b8c!8m2!3d-7.9768173!4d110.708197!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSGVtTmZiR3RSUlJBQuABAPoBBAgAEA4!16s%2Fg%2F1hm3p13v1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPN+1+Ponjong/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb57cf57a5307:0xb753d4058efc5b8c!8m2!3d-7.9768173!4d110.708197!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSGVtTmZiR3RSUlJBQuABAPoBBAgAEA4!16s%2Fg%2F1hm3p13v1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1433,25 +1406,24 @@
           <t>0813-2650-1168</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.9</v>
+        <v>-8.149741000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.149741000000001</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.616063</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+TQS+ASSALAAM/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bbb3db6798f6f:0xd925500ad2c44f44!8m2!3d-8.1497413!4d110.6160633!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU14Y25SSUxUUjNSUkFC4AEA-gEECAAQDQ!16s%2Fg%2F11fnrprgpm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+TQS+ASSALAAM/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bbb3db6798f6f:0xd925500ad2c44f44!8m2!3d-8.1497413!4d110.6160633!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU14Y25SSUxUUjNSUkFC4AEA-gEECAAQDQ!16s%2Fg%2F11fnrprgpm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1478,25 +1450,24 @@
           <t>0838-6969-2591</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.6</v>
+        <v>-8.013449</v>
       </c>
       <c r="G25" t="n">
-        <v>-8.013449</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.587577</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPN+3+Wonosari/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb3c0d731e6d1:0x2d9c465a4e044aae!8m2!3d-8.0134488!4d110.5875769!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSb2JUWnhZbWRCUlJBQuABAPoBBAgAEDM!16s%2Fg%2F11b7ynwswx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPN+3+Wonosari/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb3c0d731e6d1:0x2d9c465a4e044aae!8m2!3d-8.0134488!4d110.5875769!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSb2JUWnhZbWRCUlJBQuABAPoBBAgAEDM!16s%2Fg%2F11b7ynwswx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1515,25 +1486,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.4</v>
+        <v>-7.966611</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.966611</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.605585</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Bopkri+Wonosari/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb35cd6220b37:0xe28eff910344e029!8m2!3d-7.9666111!4d110.6055849!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSQ2FEaDJkRXBuRUFF4AEA-gEECFEQSQ!16s%2Fg%2F1hm5_65bb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Bopkri+Wonosari/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb35cd6220b37:0xe28eff910344e029!8m2!3d-7.9666111!4d110.6055849!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSQ2FEaDJkRXBuRUFF4AEA-gEECFEQSQ!16s%2Fg%2F1hm5_65bb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1560,25 +1530,24 @@
           <t>(0274) 392381</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.6</v>
+        <v>-8.001348999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-8.001348999999999</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.648276</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Semanu/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb45c3730e6d7:0xbb06f45cb2d6925f!8m2!3d-8.0013494!4d110.6482763!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTE1tUnBTSEJSUlJBQuABAPoBBAgcEDY!16s%2Fg%2F1pzyqstc5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Semanu/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb45c3730e6d7:0xbb06f45cb2d6925f!8m2!3d-8.0013494!4d110.6482763!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTE1tUnBTSEJSUlJBQuABAPoBBAgcEDY!16s%2Fg%2F1pzyqstc5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1601,25 +1570,24 @@
           <t>(0274) 392379</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.6</v>
+        <v>-7.952464</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.952464</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.67575</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Karangmojo/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb5293b049037:0xe2e16832499e26de!8m2!3d-7.952464!4d110.67575!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOdFgxbDFkbWhCUlJBQuABAPoBBAgAED4!16s%2Fg%2F1tgv9fpf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Karangmojo/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb5293b049037:0xe2e16832499e26de!8m2!3d-7.952464!4d110.67575!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOdFgxbDFkbWhCUlJBQuABAPoBBAgAED4!16s%2Fg%2F1tgv9fpf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1646,25 +1614,24 @@
           <t>(0274) 4390368</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.5</v>
+        <v>-7.865138</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.865138</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.740696</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Semin/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a35b255555555:0x6737a14dec0f0b53!8m2!3d-7.865138!4d110.7406962!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONE0zTnlObTEzUlJBQuABAPoBBAgAEBw!16s%2Fg%2F11b7q3ndrp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Semin/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a35b255555555:0x6737a14dec0f0b53!8m2!3d-7.865138!4d110.7406962!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONE0zTnlObTEzUlJBQuABAPoBBAgAEBw!16s%2Fg%2F11b7q3ndrp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1683,25 +1650,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.3</v>
+        <v>-7.843453</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.843453</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.591204</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Gedangsari/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4eea5b8a7241:0x21110c771b18b65e!8m2!3d-7.8434534!4d110.5912041!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOc09YVmZPRUpuRUFF4AEA-gEECAAQEQ!16s%2Fg%2F1hm1t_h1b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Gedangsari/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4eea5b8a7241:0x21110c771b18b65e!8m2!3d-7.8434534!4d110.5912041!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOc09YVmZPRUpuRUFF4AEA-gEECAAQEQ!16s%2Fg%2F1hm1t_h1b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1728,25 +1694,24 @@
           <t>0878-3944-8656</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.4</v>
+        <v>-8.153385999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.153385999999999</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.769456</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Girisubo/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bc6fa4fd620b5:0x6b2030d9f5547d41!8m2!3d-8.1533856!4d110.7694561!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSTE5FOVRRbGRCRUFF4AEA-gEECAAQPw!16s%2Fg%2F11bwqmhf1w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Girisubo/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bc6fa4fd620b5:0x6b2030d9f5547d41!8m2!3d-8.1533856!4d110.7694561!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSTE5FOVRRbGRCRUFF4AEA-gEECAAQPw!16s%2Fg%2F11bwqmhf1w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1765,25 +1730,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.5</v>
+        <v>-8.087629</v>
       </c>
       <c r="G32" t="n">
-        <v>-8.087629</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.62711</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPN+1+Tepus/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb73726a53789:0xb7550cca2ea0ef36!8m2!3d-8.0876291!4d110.6271104!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSUGNFbGZVMjFSUlJBQuABAPoBBAgAEEg!16s%2Fg%2F1hm2py0vm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPN+1+Tepus/@-7.9768173,110.4198059,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb73726a53789:0xb7550cca2ea0ef36!8m2!3d-8.0876291!4d110.6271104!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSUGNFbGZVMjFSUlJBQuABAPoBBAgAEEg!16s%2Fg%2F1hm2py0vm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1806,25 +1770,24 @@
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.3</v>
+        <v>-7.940462</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.940462</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.549242</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Taman+Dewasa+Playen/@-7.9404619,110.2608509,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4d39c5af4187:0x6a7ec3546005071e!8m2!3d-7.9404619!4d110.549242!15sCg9TTVAgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11f3n3sglz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Taman+Dewasa+Playen/@-7.9404619,110.2608509,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4d39c5af4187:0x6a7ec3546005071e!8m2!3d-7.9404619!4d110.549242!15sCg9TTVAgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11f3n3sglz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1847,25 +1810,24 @@
           <t>(0274) 2901310</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.4</v>
+        <v>-8.079501</v>
       </c>
       <c r="G34" t="n">
-        <v>-8.079501</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.763488</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Rongkop/@-8.0795014,110.4750973,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bc8f6829a38d3:0xddbee4329cb31a17!8m2!3d-8.0795014!4d110.7634884!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSdGNtSTNWRlpCRUFF4AEA-gEECAAQRA!16s%2Fg%2F1hm26tn2f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Rongkop/@-8.0795014,110.4750973,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bc8f6829a38d3:0xddbee4329cb31a17!8m2!3d-8.0795014!4d110.7634884!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSdGNtSTNWRlpCRUFF4AEA-gEECAAQRA!16s%2Fg%2F1hm26tn2f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1884,25 +1846,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>-7.823764</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.823764</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.70513</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Unggulan+Ashidiq/@-7.8237642,110.416739,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a49c21a15efe7:0x7e51dc700bdd406c!8m2!3d-7.8237642!4d110.7051301!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcU56VmhTV1pCRUFF4AEA-gEECAAQFg!16s%2Fg%2F11p_8lzsr_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Unggulan+Ashidiq/@-7.8237642,110.416739,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a49c21a15efe7:0x7e51dc700bdd406c!8m2!3d-7.8237642!4d110.7051301!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOcU56VmhTV1pCRUFF4AEA-gEECAAQFg!16s%2Fg%2F11p_8lzsr_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -1925,25 +1886,24 @@
           <t>(0274) 74930030</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.5</v>
+        <v>-7.94319</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.94319</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.64003</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Karangmojo/@-7.8237642,110.416739,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4b4a727b2e73:0x2dc7d05d3bfbb4ca!8m2!3d-7.94319!4d110.64003!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm68nxtm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Karangmojo/@-7.8237642,110.416739,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4b4a727b2e73:0x2dc7d05d3bfbb4ca!8m2!3d-7.94319!4d110.64003!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm68nxtm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1970,25 +1930,24 @@
           <t>0811-251-226</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.3</v>
+        <v>-8.095024</v>
       </c>
       <c r="G37" t="n">
-        <v>-8.095024</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.611572</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPN+2+Tanjungsari+Gunungkidul/@-8.0950241,110.3231805,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb0b4dd220a85:0x86aa3f2639ccfe1a!8m2!3d-8.0950241!4d110.6115716!15sCg9TTVAgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F12hl55nyb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPN+2+Tanjungsari+Gunungkidul/@-8.0950241,110.3231805,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb0b4dd220a85:0x86aa3f2639ccfe1a!8m2!3d-8.0950241!4d110.6115716!15sCg9TTVAgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F12hl55nyb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2007,25 +1966,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.5</v>
+        <v>-8.001986</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.001986</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.345054</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Purwosari/@-8.0019864,110.0566631,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7baa8837dc4f63:0x1a77bbc086bed169!8m2!3d-8.0019864!4d110.3450542!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYUxXTXRhREpCUlJBQuABAPoBBAgAEBg!16s%2Fg%2F1ptwrv51d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Purwosari/@-8.0019864,110.0566631,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7baa8837dc4f63:0x1a77bbc086bed169!8m2!3d-8.0019864!4d110.3450542!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYUxXTXRhREpCUlJBQuABAPoBBAgAEBg!16s%2Fg%2F1ptwrv51d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2052,25 +2010,24 @@
           <t>(0274) 4390311</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.5</v>
+        <v>-7.866108</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.866108</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.734558</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+MUHAMMADIYAH+SEMIN/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a35e740b0eb2b:0x5c6ebe04bea71309!8m2!3d-7.8661084!4d110.7345581!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRM016aEhWVFpSUlJBQuABAPoBBAgAEDw!16s%2Fg%2F11cncsnr69?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+MUHAMMADIYAH+SEMIN/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a35e740b0eb2b:0x5c6ebe04bea71309!8m2!3d-7.8661084!4d110.7345581!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRM016aEhWVFpSUlJBQuABAPoBBAgAEDw!16s%2Fg%2F11cncsnr69?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2089,25 +2046,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>-7.994342</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.994342</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.684353</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+PEMBANGUNAN+SIDOREJO+PONJONG+GUNUNGKIDUL/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb5a31179bfed:0x52b8073f8b694d7f!8m2!3d-7.9943422!4d110.6843531!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11b7p_33z5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+PEMBANGUNAN+SIDOREJO+PONJONG+GUNUNGKIDUL/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb5a31179bfed:0x52b8073f8b694d7f!8m2!3d-7.9943422!4d110.6843531!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11b7p_33z5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2130,25 +2086,24 @@
           <t>0858-6877-4709</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.3</v>
+        <v>-7.820216</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.820216</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.690495</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+5+Ngawen/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4835304a286f:0xd23a7fd39e589717!8m2!3d-7.8202159!4d110.6904948!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSU2FXRnVja3BuRUFF4AEA-gEECAAQIw!16s%2Fg%2F1hm47j7vl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+5+Ngawen/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4835304a286f:0xd23a7fd39e589717!8m2!3d-7.8202159!4d110.6904948!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSU2FXRnVja3BuRUFF4AEA-gEECAAQIw!16s%2Fg%2F1hm47j7vl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2167,25 +2122,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.5</v>
+        <v>-7.865781</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.865781</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.66031</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Nglipar/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4bd5b58d9501:0x8fc7afb3b513679e!8m2!3d-7.8657815!4d110.6603097!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm4x3r9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Nglipar/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4bd5b58d9501:0x8fc7afb3b513679e!8m2!3d-7.8657815!4d110.6603097!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm4x3r9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2208,25 +2162,24 @@
           <t>(0274) 393565</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.1</v>
+        <v>-7.951965</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.951965</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.669634</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Ekakapti+Karangmojo/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb529396f683d:0x4268d9e656a29969!8m2!3d-7.9519649!4d110.6696338!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11b807m_fn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Ekakapti+Karangmojo/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb529396f683d:0x4268d9e656a29969!8m2!3d-7.9519649!4d110.6696338!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11b807m_fn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2245,25 +2198,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.1</v>
+        <v>-7.850383</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.850383</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.682002</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Ngawen/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a49918efb222f:0xa609347afb45aaf8!8m2!3d-7.8503826!4d110.6820023!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONE5EVTNRbkpCUlJBQuABAPoBBAgAEDs!16s%2Fg%2F1hm483h1z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Ngawen/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a49918efb222f:0xa609347afb45aaf8!8m2!3d-7.8503826!4d110.6820023!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONE5EVTNRbkpCUlJBQuABAPoBBAgAEDs!16s%2Fg%2F1hm483h1z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2290,25 +2242,24 @@
           <t>0856-4042-4938</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>-7.938983</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.938983</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.689152</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekolah+Menengah+Pertama+(SMP)+Al+Hikmah+Karangmojo/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4ba5e419534d:0x7d21183677edf662!8m2!3d-7.9389827!4d110.6891518!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEYZ2VuZXJhbF9lZHVjYXRpb25fc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5zY0ZsdFZYWkJSUkFC4AEA-gEECAAQGg!16s%2Fg%2F11vlhc94dz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekolah+Menengah+Pertama+(SMP)+Al+Hikmah+Karangmojo/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4ba5e419534d:0x7d21183677edf662!8m2!3d-7.9389827!4d110.6891518!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEYZ2VuZXJhbF9lZHVjYXRpb25fc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5zY0ZsdFZYWkJSUkFC4AEA-gEECAAQGg!16s%2Fg%2F11vlhc94dz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2327,25 +2278,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.3</v>
+        <v>-8.058522999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.058522999999999</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.653087</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Semanu/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb6f0193de95d:0x64d595cd9b0b8498!8m2!3d-8.0585233!4d110.6530868!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSU0weFRNWEZCUlJBQuABAPoBBAgAECg!16s%2Fg%2F1hm1q5dwb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Semanu/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb6f0193de95d:0x64d595cd9b0b8498!8m2!3d-8.0585233!4d110.6530868!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSU0weFRNWEZCUlJBQuABAPoBBAgAECg!16s%2Fg%2F1hm1q5dwb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2368,25 +2318,24 @@
           <t>(0274) 2903864</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.7</v>
+        <v>-8.012027</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.012027</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.624623</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Semanu/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb692694547cb:0xaa8afc553d7ae7aa!8m2!3d-8.0120269!4d110.6246225!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSeWFXSnhhMGxSRUFF4AEA-gEECAAQKQ!16s%2Fg%2F1hm40bs3x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Semanu/@-7.8661084,110.446167,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb692694547cb:0xaa8afc553d7ae7aa!8m2!3d-8.0120269!4d110.6246225!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSeWFXSnhhMGxSRUFF4AEA-gEECAAQKQ!16s%2Fg%2F1hm40bs3x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2405,25 +2354,24 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.3</v>
+        <v>-7.912628</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.912628</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.556386</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Playen/@-7.912628,110.2679949,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4d088afb7eb3:0x272cecaafda2b6bd!8m2!3d-7.912628!4d110.556386!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF6YWpodU9EVjNSUkFC4AEA-gEECAAQFQ!16s%2Fg%2F1hm2_k828?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Playen/@-7.912628,110.2679949,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4d088afb7eb3:0x272cecaafda2b6bd!8m2!3d-7.912628!4d110.556386!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF6YWpodU9EVjNSUkFC4AEA-gEECAAQFQ!16s%2Fg%2F1hm2_k828?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2442,25 +2390,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.3</v>
+        <v>-7.928455</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.928455</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.714225</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPN+4+Ponjong/@-7.9284548,110.4258343,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a3558c45cf7c9:0x57a603b2a74bcff2!8m2!3d-7.9284548!4d110.7142254!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSdGRUWnVZMHRCRUFF4AEA-gEECAAQGg!16s%2Fg%2F1hm52cb2y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPN+4+Ponjong/@-7.9284548,110.4258343,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a3558c45cf7c9:0x57a603b2a74bcff2!8m2!3d-7.9284548!4d110.7142254!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSdGRUWnVZMHRCRUFF4AEA-gEECAAQGg!16s%2Fg%2F1hm52cb2y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2483,25 +2430,24 @@
           <t>0877-3881-0081</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.8</v>
+        <v>-7.829371</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.829371</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.703997</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Sanjaya+Ngawen/@-7.9284548,110.4258343,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a49d091ec701f:0x7bf9830c891f3d0f!8m2!3d-7.8293706!4d110.7039969!15sCg9TTVAgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm5tkj1x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Sanjaya+Ngawen/@-7.9284548,110.4258343,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a49d091ec701f:0x7bf9830c891f3d0f!8m2!3d-7.8293706!4d110.7039969!15sCg9TTVAgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F1hm5tkj1x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2520,25 +2466,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.4</v>
+        <v>-7.965072</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.965072</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.705612</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Ponjong/@-7.9284548,110.4258343,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb56748b0b15f:0xd1e58f94c3edeff8!8m2!3d-7.9650721!4d110.7056122!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdGVEUjJjbTFSUlJBQuABAPoBBAgAECM!16s%2Fg%2F1hm51x_49?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Ponjong/@-7.9284548,110.4258343,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb56748b0b15f:0xd1e58f94c3edeff8!8m2!3d-7.9650721!4d110.7056122!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdGVEUjJjbTFSUlJBQuABAPoBBAgAECM!16s%2Fg%2F1hm51x_49?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2557,25 +2502,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.3</v>
+        <v>-8.06345</v>
       </c>
       <c r="G52" t="n">
-        <v>-8.06345</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.43155</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+N+4+Panggang/@-8.06345,110.1431589,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7baecbd2eed5e7:0x79ae2f6bfbd70e95!8m2!3d-8.06345!4d110.43155!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOWWFHUkxibE4zRUFF4AEA-gEECAAQGg!16s%2Fg%2F1hm50k0tg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+N+4+Panggang/@-8.06345,110.1431589,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7baecbd2eed5e7:0x79ae2f6bfbd70e95!8m2!3d-8.06345!4d110.43155!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOWWFHUkxibE4zRUFF4AEA-gEECAAQGg!16s%2Fg%2F1hm50k0tg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2594,25 +2538,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4</v>
+      </c>
       <c r="F53" t="n">
-        <v>4</v>
+        <v>-7.884946</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.884946</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.616245</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Nglipar/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4c0abcd193c7:0x76993f88bf158051!8m2!3d-7.8849464!4d110.6162454!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm2sny68?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Nglipar/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4c0abcd193c7:0x76993f88bf158051!8m2!3d-7.8849464!4d110.6162454!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm2sny68?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2631,25 +2574,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.5</v>
+        <v>-7.801531</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.801531</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.675942</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPN+4+Ngawen/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a485ce115e497:0xf2684f315f375d7e!8m2!3d-7.8015309!4d110.6759416!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxYTNOWWFuVm5SUkFC4AEA-gEECAAQDg!16s%2Fg%2F1hm207_2v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPN+4+Ngawen/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a485ce115e497:0xf2684f315f375d7e!8m2!3d-7.8015309!4d110.6759416!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxYTNOWWFuVm5SUkFC4AEA-gEECAAQDg!16s%2Fg%2F1hm207_2v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2668,25 +2610,24 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>5</v>
+      </c>
       <c r="F55" t="n">
-        <v>5</v>
+        <v>-8.111698000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.111698000000001</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.561824</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+N+1+Tanjungsari+%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A4%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87%EA%A6%A0%EA%A6%9A%EA%A7%80%EA%A6%97%EA%A6%B8%EA%A6%81%EA%A6%B1%EA%A6%AB%EA%A6%B6/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb079420e9885:0x1d53e05e3188c7ab!8m2!3d-8.1116979!4d110.5618244!15sCg9TTVAgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11gdqr4_z3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+N+1+Tanjungsari+%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A4%EA%A7%80%EA%A7%87%EA%A7%91%EA%A7%87%EA%A6%A0%EA%A6%9A%EA%A7%80%EA%A6%97%EA%A6%B8%EA%A6%81%EA%A6%B1%EA%A6%AB%EA%A6%B6/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb079420e9885:0x1d53e05e3188c7ab!8m2!3d-8.1116979!4d110.5618244!15sCg9TTVAgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11gdqr4_z3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2709,25 +2650,24 @@
           <t>(0274) 4390023</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4</v>
+      </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>-7.955309</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.955309</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.678241</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Pembangunan+Karangmojo/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb4c62738f665:0xc0b400313ad07b6c!8m2!3d-7.9553095!4d110.6782414!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOQ1gzWjJYMGgzRUFF4AEA-gEECAAQNg!16s%2Fg%2F1pzsqtxwh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Pembangunan+Karangmojo/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb4c62738f665:0xc0b400313ad07b6c!8m2!3d-7.9553095!4d110.6782414!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOQ1gzWjJYMGgzRUFF4AEA-gEECAAQNg!16s%2Fg%2F1pzsqtxwh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -2746,25 +2686,24 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.9</v>
+        <v>-8.060727</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.060727</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.618885</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Tanjungsari/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb6cd6582b7d1:0x7250c061db54f729!8m2!3d-8.0607267!4d110.6188853!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRdGNYTjJlSFozUlJBQuABAPoBBAgAEBE!16s%2Fg%2F11c1wh5gn7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Tanjungsari/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb6cd6582b7d1:0x7250c061db54f729!8m2!3d-8.0607267!4d110.6188853!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRdGNYTjJlSFozUlJBQuABAPoBBAgAEBE!16s%2Fg%2F11c1wh5gn7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2791,25 +2730,24 @@
           <t>(0274) 7113139</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4</v>
+      </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>-7.883875</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.883875</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.743758</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+4+Semin/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a35b969805171:0x2782f980f408f5db!8m2!3d-7.8838749!4d110.7437578!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11b7lq88xw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+4+Semin/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a35b969805171:0x2782f980f408f5db!8m2!3d-7.8838749!4d110.7437578!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11b7lq88xw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2836,25 +2774,24 @@
           <t>(0274) 7487968</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.3</v>
+        <v>-7.862638</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.862638</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.722678</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+NEGERI+2+SEMIN/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a35fd1f20e48b:0x1280dbf0077dc8c3!8m2!3d-7.8626381!4d110.7226778!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeWFuVnlNVE4zUlJBQuABAPoBBAgAEC4!16s%2Fg%2F1hm6n33kv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+NEGERI+2+SEMIN/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a35fd1f20e48b:0x1280dbf0077dc8c3!8m2!3d-7.8626381!4d110.7226778!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSeWFuVnlNVE4zUlJBQuABAPoBBAgAEC4!16s%2Fg%2F1hm6n33kv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2873,25 +2810,24 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.8</v>
+        <v>-7.884985</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.884985</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.489694</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Madrasah+Ibtidaiyah+Negeri+(MIN)+7+Gunungkidul/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a523b09cefad9:0x6e8d5967db64a26b!8m2!3d-7.8849854!4d110.4896937!15sCg9TTVAgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11f25j4yn3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Madrasah+Ibtidaiyah+Negeri+(MIN)+7+Gunungkidul/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a523b09cefad9:0x6e8d5967db64a26b!8m2!3d-7.8849854!4d110.4896937!15sCg9TTVAgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11f25j4yn3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2910,25 +2846,24 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.7</v>
+        <v>-8.052667</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.052667</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.488834</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Saptosari/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bae692abafa35:0xabeb5d2d60c9aed6!8m2!3d-8.0526675!4d110.4888337!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11c2q0nyg3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Saptosari/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bae692abafa35:0xabeb5d2d60c9aed6!8m2!3d-8.0526675!4d110.4888337!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11c2q0nyg3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2947,25 +2882,24 @@
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4</v>
+      </c>
       <c r="F62" t="n">
-        <v>4</v>
+        <v>-7.865958</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.865958</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.7385</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+-SMA-SMK-Gotong+Royong+Semin/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a35ddb117c2a1:0x2916dcd763134259!8m2!3d-7.8659577!4d110.7385001!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSS2FuQnliWEZuUlJBQuABAPoBBAgAEBo!16s%2Fg%2F1hm1pqr_r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+-SMA-SMK-Gotong+Royong+Semin/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a35ddb117c2a1:0x2916dcd763134259!8m2!3d-7.8659577!4d110.7385001!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSS2FuQnliWEZuUlJBQuABAPoBBAgAEBo!16s%2Fg%2F1hm1pqr_r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2984,25 +2918,24 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F63" t="n">
-        <v>3.3</v>
+        <v>-8.000489999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.000489999999999</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.66245</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Persiapan+Semanu/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb44cef915f53:0x58c7f47f0641b3a6!8m2!3d-8.0004899!4d110.66245!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm2ry3nf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Persiapan+Semanu/@-7.8849464,110.3278543,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb44cef915f53:0x58c7f47f0641b3a6!8m2!3d-8.0004899!4d110.66245!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm2ry3nf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3021,25 +2954,24 @@
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F64" t="n">
-        <v>3.7</v>
+        <v>-7.976361</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.976361</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.416893</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+5+Panggang/@-7.9763614,110.1285017,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bab2b4bbae9af:0xa911a1a3cebe1278!8m2!3d-7.9763614!4d110.4168928!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11kb9rt6h7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+5+Panggang/@-7.9763614,110.1285017,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bab2b4bbae9af:0xa911a1a3cebe1278!8m2!3d-7.9763614!4d110.4168928!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11kb9rt6h7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3058,25 +2990,24 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>-7.98751</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.98751</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.578904</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Wonosari/@-7.9875104,110.2905129,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb3065da6f6ff:0x4fcfdd461add5b8c!8m2!3d-7.9875104!4d110.578904!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm2d9qx1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Wonosari/@-7.9875104,110.2905129,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb3065da6f6ff:0x4fcfdd461add5b8c!8m2!3d-7.9875104!4d110.578904!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm2d9qx1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -3103,25 +3034,24 @@
           <t>0852-9292-4246</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.6</v>
+        <v>-8.115845</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.115845</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.714644</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMPN+2+RONGKOP/@-7.9875104,110.2905129,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bc7f856e09961:0xd56c62dcdfa72aac!8m2!3d-8.1158451!4d110.7146436!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11b7hplcy7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMPN+2+RONGKOP/@-7.9875104,110.2905129,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bc7f856e09961:0xd56c62dcdfa72aac!8m2!3d-8.1158451!4d110.7146436!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F11b7hplcy7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -3140,25 +3070,24 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F67" t="n">
-        <v>3.7</v>
+        <v>-8.105229</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.105229</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.631007</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Tepus/@-7.9875104,110.2905129,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb75a4552e325:0x3812641baec2b278!8m2!3d-8.1052294!4d110.6310071!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm2yksx5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Tepus/@-7.9875104,110.2905129,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb75a4552e325:0x3812641baec2b278!8m2!3d-8.1052294!4d110.6310071!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm2yksx5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3181,25 +3110,24 @@
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F68" t="n">
-        <v>3.8</v>
+        <v>-7.927296</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.927296</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.743781</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Ponjong/@-7.927296,110.4553896,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a353bbfc4c18b:0x38443ce3049da0d3!8m2!3d-7.927296!4d110.7437807!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5ZZDNCZmR6bEJSUkFC4AEA-gEECAAQEA!16s%2Fg%2F1hm6c86s8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Ponjong/@-7.927296,110.4553896,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a353bbfc4c18b:0x38443ce3049da0d3!8m2!3d-7.927296!4d110.7437807!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5ZZDNCZmR6bEJSUkFC4AEA-gEECAAQEA!16s%2Fg%2F1hm6c86s8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3222,25 +3150,24 @@
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.3</v>
+        <v>-7.8071</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.8071</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.5749</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Gedangsari/@-7.8071,110.2865089,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4f0b5eca851d:0xb3a0513cec9bc2fd!8m2!3d-7.8071!4d110.5749!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMWRVNHRWamhuUlJBQuABAPoBBAgAEBM!16s%2Fg%2F1hm3tycsm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+1+Gedangsari/@-7.8071,110.2865089,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4f0b5eca851d:0xb3a0513cec9bc2fd!8m2!3d-7.8071!4d110.5749!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMWRVNHRWamhuUlJBQuABAPoBBAgAEBM!16s%2Fg%2F1hm3tycsm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3263,25 +3190,24 @@
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F70" t="n">
-        <v>3.9</v>
+        <v>-8.094904</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.094904</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.527275</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+3+Saptosari/@-8.0949038,110.2388836,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb023023d8b0b:0x2bf2e77e4c9df0bb!8m2!3d-8.0949038!4d110.5272747!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSWU0weHVjbXBSUlJBQuABAPoBBAgAECU!16s%2Fg%2F1hm2h6hmz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+3+Saptosari/@-8.0949038,110.2388836,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb023023d8b0b:0x2bf2e77e4c9df0bb!8m2!3d-8.0949038!4d110.5272747!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSWU0weHVjbXBSUlJBQuABAPoBBAgAECU!16s%2Fg%2F1hm2h6hmz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3300,25 +3226,24 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.2</v>
+        <v>-8.059407</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.059407</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.7045</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Semanu/@-8.0594069,110.416109,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb62f1e074a77:0x4e81ad711aa4c12e!8m2!3d-8.0594069!4d110.7045001!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm234g2g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Semanu/@-8.0594069,110.416109,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb62f1e074a77:0x4e81ad711aa4c12e!8m2!3d-8.0594069!4d110.7045001!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm234g2g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3337,25 +3262,24 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.6</v>
+        <v>-7.96208</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.96208</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.724432</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTs+Negeri+2+Gunungkidul/@-8.0594069,110.416109,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bcaa2b3279bc1:0x404dd83b50916b5b!8m2!3d-7.9620801!4d110.7244316!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOdGJEaGxWbGRCRUFF4AEA-gEECAAQIw!16s%2Fg%2F1hm239bb6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTs+Negeri+2+Gunungkidul/@-8.0594069,110.416109,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bcaa2b3279bc1:0x404dd83b50916b5b!8m2!3d-7.9620801!4d110.7244316!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOdGJEaGxWbGRCRUFF4AEA-gEECAAQIw!16s%2Fg%2F1hm239bb6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3374,25 +3298,24 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.9</v>
+        <v>-8.14883</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.14883</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.68015</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Tepus/@-8.0594069,110.416109,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb858fb44247f:0xb90d0b1daa893e09!8m2!3d-8.14883!4d110.68015!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm6bnd2p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Tepus/@-8.0594069,110.416109,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb858fb44247f:0xb90d0b1daa893e09!8m2!3d-8.14883!4d110.68015!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm6bnd2p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -3411,25 +3334,24 @@
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F74" t="n">
-        <v>4.9</v>
+        <v>-7.963989</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.963989</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.588874</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTsN+4+Gunungkidul/@-8.0594069,110.416109,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb3393ecd533b:0x76aef87c38a7e649!8m2!3d-7.9639889!4d110.5888741!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEQcmVsaWdpb3VzX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTU1UZzNOMHhuRUFF4AEA-gEECCAQHQ!16s%2Fg%2F1hm379_34?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTsN+4+Gunungkidul/@-8.0594069,110.416109,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb3393ecd533b:0x76aef87c38a7e649!8m2!3d-7.9639889!4d110.5888741!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEQcmVsaWdpb3VzX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTU1UZzNOMHhuRUFF4AEA-gEECCAQHQ!16s%2Fg%2F1hm379_34?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -3448,25 +3370,24 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>5</v>
+      </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>-7.978815</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.978815</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.537807</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Grogol/@-7.9788151,110.2494154,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb29138c59b5b:0x53f415a1ce49cc3d!8m2!3d-7.9788151!4d110.5378065!15sCg9TTVAgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11cncpw29j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+Grogol/@-7.9788151,110.2494154,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb29138c59b5b:0x53f415a1ce49cc3d!8m2!3d-7.9788151!4d110.5378065!15sCg9TTVAgR3VudW5na2lkdWySAQZzY2hvb2zgAQA!16s%2Fg%2F11cncpw29j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3485,25 +3406,24 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.8</v>
+        <v>-7.83455</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.83455</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.60495</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Gedangsari/@-7.9788151,110.2494154,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4ed00a01bcd1:0x75af4544f08aeb17!8m2!3d-7.8345497!4d110.6049501!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOU01XUkRNMXBSRUFF4AEA-gEECAAQHg!16s%2Fg%2F1hm1qh59g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Gedangsari/@-7.9788151,110.2494154,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7a4ed00a01bcd1:0x75af4544f08aeb17!8m2!3d-7.8345497!4d110.6049501!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOU01XUkRNMXBSRUFF4AEA-gEECAAQHg!16s%2Fg%2F1hm1qh59g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3530,25 +3450,24 @@
           <t>0878-7195-6868</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>5</v>
+      </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>-7.981985</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.981985</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.701498</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+SMA+PESANTREN+BAITUL+QUR'AN+YOGYAKARTA+PUTRA/@-7.9819847,110.4131066,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb59a9e7df6a5:0xd0deba23f9a22778!8m2!3d-7.9819847!4d110.7014977!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJpTmpoTFdHMW5SUkFC4AEA-gEECAAQKA!16s%2Fg%2F11f7pt8z5c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+SMA+PESANTREN+BAITUL+QUR'AN+YOGYAKARTA+PUTRA/@-7.9819847,110.4131066,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb59a9e7df6a5:0xd0deba23f9a22778!8m2!3d-7.9819847!4d110.7014977!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJpTmpoTFdHMW5SUkFC4AEA-gEECAAQKA!16s%2Fg%2F11f7pt8z5c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
